--- a/database/Breeding_Pairs_Summary.xlsx
+++ b/database/Breeding_Pairs_Summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Description</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">A152, A137, A009, A010, A002, A013, A004, A003, A012, A019, A005, A020, A011, A022, A017, A024, A027, A026, A033, A040, A041, A036, A037, A029, A028, A032, A034, A035, A039, A030, A048, A042, A053, A052, A045, A044, A046, A051, A054, A043, A058, A063, A062, A059, A061, A060, A064, A067, A074, A068, A073, A078, A081, A066, A079, A083, A075, A084, A076, A086, A102, A103, A100, A105, A130, A120, A129, A121, A125, A123, A098, A133, A117, A132, A136, A139, A138, A135, A145, A142, A143, A157, A148, A147, A149, A158, A154, A160, A151, A161, A164, A162, A167, A169, A168, A173, A171, A172, A175, A174, A178, A176, A179, A180, A177, A183, A181, A188, A232, A182, A199, A195, A197, A198, A193, A184, A187, A202, A201, A200, A192, A204, A217, A196, A194, A214, A186, A224, A225, A220, A222, A230, A233, A234, A229, A231, A240, A244, A235, A237, A243, A239, A245, A253, A251, A252, A250, A249, A255, A258, A263, A261, A260, A262, A264, A267, A257, A259, A268, A265, A274, A280, A279, A269, A277, A281, A284, A291, A298, A286, A290, A296, A303, A313, A305, A282, A288, A308, A283, A302, A297, A272, A295, A287, A307, A309, A299, A293, A289, A334, A328, A321, A335, A345, A330, A318, A319, A341, A339, A323, A329, A316, A333, A314, A340, A324, A337, A338, A322, A346, A320, A325, A332, A317, A312, A343, A326, A372, A353, A358, A350, A355, A357, A367, A365, A352, A354, A359, A363, A351, A364, A360, A375, A371, A370, A374, A373, A408, A397, A383, A402, A388, A405, A391, A415, A398, A377, A410, A396, A445, A460, A535, A552, A740, A747, A762, A763, A767, A1141, A2090, A2088, A2089, A2091, A-1719, A-1736, A-1739, A-1730, A-1728, A-1733, A-1718, A-1745, A-1750, A-1716, A-1742, A-1746, A-1748, A-1735, A-1732, A-1741, A-1749, A-1744, A-1772, A-1771, A-1775, A-1752, A-1774, A-1769, A-1777, A-1753, A-1778, A-1779, A-1782, A-1783, A-1785, A1775, A1777, A1779, A1781, A1769, A1791, A1794, A1784, A1789, A1488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Birth Records from Final Pairs</t>
   </si>
 </sst>
 </file>
@@ -404,6 +407,15 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7858</v>
+      </c>
+      <c r="C5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
